--- a/admin/excel-templates-tutor/tutor.xlsx
+++ b/admin/excel-templates-tutor/tutor.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27932"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jasmine Fernandez\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Clarisse\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6A4A4C0-A050-4835-A68A-C6AA67DFCAF3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67DFBC01-6A1A-4E6C-A3BB-3D7C29205921}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{A5AF787C-F4F8-4C9C-8F24-09FD43582691}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{A5AF787C-F4F8-4C9C-8F24-09FD43582691}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="48">
   <si>
     <t>fblink</t>
   </si>
@@ -172,6 +172,12 @@
   </si>
   <si>
     <t>21-1262</t>
+  </si>
+  <si>
+    <t>Bio</t>
+  </si>
+  <si>
+    <t>bio</t>
   </si>
 </sst>
 </file>
@@ -282,42 +288,36 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -339,9 +339,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2013 - 2022">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -379,7 +379,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2013 - 2022">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -485,7 +485,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2013 - 2022">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -627,7 +627,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -635,30 +635,30 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96A071F6-D2E8-4F95-99C2-993014C12D6B}">
-  <dimension ref="A1:M7"/>
+  <dimension ref="A1:N7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="O5" sqref="O5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.85546875" customWidth="1"/>
-    <col min="2" max="2" width="12.5703125" customWidth="1"/>
-    <col min="3" max="3" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.7109375" customWidth="1"/>
-    <col min="7" max="7" width="12.5703125" customWidth="1"/>
-    <col min="9" max="9" width="18.5703125" customWidth="1"/>
-    <col min="10" max="10" width="20.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.88671875" customWidth="1"/>
+    <col min="2" max="2" width="12.5546875" customWidth="1"/>
+    <col min="3" max="3" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.6640625" customWidth="1"/>
+    <col min="7" max="7" width="12.5546875" customWidth="1"/>
+    <col min="9" max="9" width="18.5546875" customWidth="1"/>
+    <col min="10" max="10" width="20.5546875" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="21" customWidth="1"/>
-    <col min="12" max="12" width="33.5703125" customWidth="1"/>
-    <col min="13" max="13" width="13.42578125" customWidth="1"/>
+    <col min="12" max="12" width="33.5546875" customWidth="1"/>
+    <col min="13" max="13" width="13.44140625" customWidth="1"/>
     <col min="14" max="14" width="29" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="30.28515625" customWidth="1"/>
+    <col min="15" max="15" width="30.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="7" t="s">
         <v>38</v>
       </c>
@@ -698,8 +698,11 @@
       <c r="M1" s="7" t="s">
         <v>32</v>
       </c>
+      <c r="N1" s="7" t="s">
+        <v>46</v>
+      </c>
     </row>
-    <row r="2" spans="1:13" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
@@ -727,7 +730,7 @@
       <c r="I2" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="J2" s="11" t="s">
+      <c r="J2" s="4" t="s">
         <v>44</v>
       </c>
       <c r="K2" s="4" t="s">
@@ -739,8 +742,11 @@
       <c r="M2" s="4" t="s">
         <v>27</v>
       </c>
+      <c r="N2" s="4" t="s">
+        <v>47</v>
+      </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -768,7 +774,7 @@
       <c r="I3" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="J3" s="11" t="s">
+      <c r="J3" s="4" t="s">
         <v>44</v>
       </c>
       <c r="K3" s="1" t="s">
@@ -780,8 +786,11 @@
       <c r="M3" s="1" t="s">
         <v>28</v>
       </c>
+      <c r="N3" s="4" t="s">
+        <v>47</v>
+      </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
@@ -809,7 +818,7 @@
       <c r="I4" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="J4" s="12" t="s">
+      <c r="J4" s="1" t="s">
         <v>45</v>
       </c>
       <c r="K4" s="1" t="s">
@@ -821,8 +830,11 @@
       <c r="M4" s="1" t="s">
         <v>29</v>
       </c>
+      <c r="N4" s="4" t="s">
+        <v>47</v>
+      </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>24</v>
       </c>
@@ -850,7 +862,7 @@
       <c r="I5" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="J5" s="12" t="s">
+      <c r="J5" s="1" t="s">
         <v>45</v>
       </c>
       <c r="K5" s="1" t="s">
@@ -862,8 +874,11 @@
       <c r="M5" s="1" t="s">
         <v>30</v>
       </c>
+      <c r="N5" s="4" t="s">
+        <v>47</v>
+      </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>25</v>
       </c>
@@ -891,7 +906,7 @@
       <c r="I6" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="J6" s="12" t="s">
+      <c r="J6" s="1" t="s">
         <v>45</v>
       </c>
       <c r="K6" s="1" t="s">
@@ -903,8 +918,11 @@
       <c r="M6" s="1" t="s">
         <v>31</v>
       </c>
+      <c r="N6" s="4" t="s">
+        <v>47</v>
+      </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="G7" s="9"/>
     </row>
   </sheetData>
